--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12620"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>PAGE</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Send</t>
+  </si>
+  <si>
+    <t>ACTIVITY PAGE</t>
+  </si>
+  <si>
+    <t>Visit</t>
   </si>
   <si>
     <t>MANAGEMENT PAGE</t>
@@ -203,6 +209,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,14 +268,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,34 +285,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,14 +305,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -290,49 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,73 +391,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,19 +547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,92 +575,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -638,11 +638,66 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -663,39 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,15 +729,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,67 +907,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -1293,314 +1303,330 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="15" t="s">
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -1611,12 +1637,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -166,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -209,21 +209,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,102 +313,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +654,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +679,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,35 +715,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,17 +737,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,9 +932,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,16 +940,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,7 +1280,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -1420,54 +1411,54 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1479,11 +1470,11 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1495,11 +1486,11 @@
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1511,11 +1502,11 @@
       <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1527,10 +1518,10 @@
       <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1545,12 +1536,12 @@
       <c r="E18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1554,7 @@
       <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="4" t="s">
@@ -1586,22 +1577,22 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1621,12 +1612,12 @@
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -1638,6 +1629,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="F11:F17"/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="28800" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>PAGE</t>
   </si>
@@ -128,6 +128,9 @@
     <t>Visit</t>
   </si>
   <si>
+    <t>PICTURE/VIDEO</t>
+  </si>
+  <si>
     <t>MANAGEMENT PAGE</t>
   </si>
   <si>
@@ -135,12 +138,6 @@
   </si>
   <si>
     <t>BANNER/ADVERTISEMENT</t>
-  </si>
-  <si>
-    <t>MULTIMEDIA PAGE</t>
-  </si>
-  <si>
-    <t>PICTURE/VIDEO</t>
   </si>
   <si>
     <t>COOPERATE SYSTEM</t>
@@ -166,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -216,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,28 +228,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +280,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -281,19 +295,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -321,32 +333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +388,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,7 +424,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +502,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,151 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +650,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -674,15 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -694,21 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +729,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -758,7 +755,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +764,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +929,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,10 +940,25 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,7 +1295,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -1411,54 +1426,54 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1470,11 +1485,11 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1486,11 +1501,11 @@
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1502,11 +1517,11 @@
       <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1518,30 +1533,28 @@
       <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1554,65 +1567,63 @@
       <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>43</v>
+      <c r="C21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>43</v>
+      <c r="F21" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1628,12 +1639,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12620"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>PAGE</t>
   </si>
@@ -128,16 +128,19 @@
     <t>Visit</t>
   </si>
   <si>
+    <t>MANAGEMENT PAGE</t>
+  </si>
+  <si>
+    <t>MEMBER MANAGEMENT</t>
+  </si>
+  <si>
+    <t>BANNER/ADVERTISEMENT</t>
+  </si>
+  <si>
+    <t>MULTIMEDIA PAGE</t>
+  </si>
+  <si>
     <t>PICTURE/VIDEO</t>
-  </si>
-  <si>
-    <t>MANAGEMENT PAGE</t>
-  </si>
-  <si>
-    <t>MEMBER MANAGEMENT</t>
-  </si>
-  <si>
-    <t>BANNER/ADVERTISEMENT</t>
   </si>
   <si>
     <t>COOPERATE SYSTEM</t>
@@ -164,8 +167,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -206,6 +209,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,6 +269,76 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,128 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -388,12 +391,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,169 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,8 +653,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +699,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,15 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,28 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,149 +755,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,7 +934,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,20 +943,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,7 +1289,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -1444,7 +1438,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1455,10 +1449,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="16"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
@@ -1469,10 +1463,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="16"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
@@ -1485,10 +1479,10 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="16"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
@@ -1501,10 +1495,10 @@
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="16"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1517,10 +1511,10 @@
       <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
@@ -1533,28 +1527,30 @@
       <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="19"/>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1567,68 +1563,70 @@
       <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="21"/>
+      <c r="D20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>42</v>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>42</v>
+      <c r="F21" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="22" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -1639,12 +1637,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="28800" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -208,32 +208,64 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,46 +277,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,56 +346,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,25 +391,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,49 +529,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,103 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -679,26 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +713,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -733,17 +739,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +767,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,26 +934,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,9 +956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1280,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
@@ -1420,54 +1411,54 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1479,11 +1470,11 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1495,11 +1486,11 @@
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1511,11 +1502,11 @@
       <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1527,10 +1518,10 @@
       <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1545,16 +1536,16 @@
       <c r="E18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1563,7 +1554,7 @@
       <c r="E19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="4" t="s">
@@ -1586,22 +1577,22 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1621,12 +1612,12 @@
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="15" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -1641,7 +1632,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F6:F10"/>
     <mergeCell ref="F11:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12620"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
   <si>
     <t>PAGE</t>
   </si>
@@ -35,6 +44,9 @@
   </si>
   <si>
     <t>HOME PAGE</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>Login Account</t>
@@ -146,7 +158,7 @@
     <t>COOPERATE SYSTEM</t>
   </si>
   <si>
-    <t>?</t>
+    <t>INFORMATION CENTER</t>
   </si>
   <si>
     <t>CALENDER PAGE</t>
@@ -166,12 +178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,25 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.75"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -195,17 +226,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="2" tint="-0.75"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -216,8 +278,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,21 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -254,73 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -329,6 +341,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -337,16 +363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,7 +409,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +481,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,103 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,38 +593,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -620,20 +638,31 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,11 +679,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,38 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,17 +712,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +735,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,19 +809,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,174 +830,222 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,361 +1367,741 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.4545454545455" style="1" customWidth="1"/>
-    <col min="3" max="16382" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="2" max="4" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="14" max="16" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="17" max="16380" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" customHeight="1" spans="2:16">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
+    <row r="3" customHeight="1" spans="1:18">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
+    <row r="4" customHeight="1" spans="1:18">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="28"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
+    <row r="5" customHeight="1" spans="1:18">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" customHeight="1" spans="1:18">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
+    <row r="7" customHeight="1" spans="1:18">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="30"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
+    <row r="8" customHeight="1" spans="1:18">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="30"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" customHeight="1" spans="1:18">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:18">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:18">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
+    <row r="12" customHeight="1" spans="1:18">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:18">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:18">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:18">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:18">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:18">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:18">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:18">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="N20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="33"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="34"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
+    <row r="22" customHeight="1" spans="1:18">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>8</v>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+  <mergeCells count="47">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N22:Q22"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A17"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R10"/>
+    <mergeCell ref="R11:R17"/>
+    <mergeCell ref="R19:R21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
   <si>
     <t>PAGE</t>
   </si>
@@ -35,6 +44,9 @@
   </si>
   <si>
     <t>HOME PAGE</t>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>Login Account</t>
@@ -146,7 +158,7 @@
     <t>COOPERATE SYSTEM</t>
   </si>
   <si>
-    <t>?</t>
+    <t>INFORMATION CENTER</t>
   </si>
   <si>
     <t>CALENDER PAGE</t>
@@ -166,12 +178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,25 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.75"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -195,19 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.75"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -216,14 +234,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,15 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,31 +325,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,37 +363,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -373,6 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,7 +409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,85 +445,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,98 +593,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -620,20 +638,31 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,46 +679,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +731,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -747,6 +754,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -755,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,204 +809,243 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,362 +1367,741 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.4545454545455" style="1" customWidth="1"/>
-    <col min="3" max="16382" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="2" max="4" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="14" max="16" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="17" max="16380" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" customHeight="1" spans="2:16">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
+    <row r="3" customHeight="1" spans="1:18">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
+    <row r="4" customHeight="1" spans="1:18">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="28"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
+    <row r="5" customHeight="1" spans="1:18">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" customHeight="1" spans="1:18">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
+    <row r="7" customHeight="1" spans="1:18">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="30"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
+    <row r="8" customHeight="1" spans="1:18">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="30"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" customHeight="1" spans="1:18">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:18">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:18">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
+    <row r="12" customHeight="1" spans="1:18">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:18">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:18">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:18">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:18">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:18">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:18">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:18">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="N20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="33"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14" t="s">
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="34"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="14" t="s">
+    <row r="22" customHeight="1" spans="1:18">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>8</v>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+  <mergeCells count="47">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N22:Q22"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A17"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R10"/>
+    <mergeCell ref="R11:R17"/>
+    <mergeCell ref="R19:R21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="28800" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>J</t>
   </si>
@@ -178,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -233,8 +233,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +333,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,104 +363,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -409,37 +409,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,145 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,11 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +722,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,27 +742,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -781,11 +775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,152 +809,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,12 +995,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,686 +1358,690 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="4" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="2" max="4" width="3.63636363636364" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.4545454545455" style="1" customWidth="1"/>
-    <col min="6" max="8" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="6" max="8" width="3.63636363636364" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="10" max="12" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="10" max="12" width="3.63636363636364" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="14" max="16" width="3.63636363636364" style="2" customWidth="1"/>
+    <col min="14" max="16" width="3.63636363636364" style="1" customWidth="1"/>
     <col min="17" max="16380" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="16381" max="16384" width="20.6363636363636" style="2"/>
+    <col min="16381" max="16384" width="20.6363636363636" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:16">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:18">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="27" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="28"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" customHeight="1" spans="1:18">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="29" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:18">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="27" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:18">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="30"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:18">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="30"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:18">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="21" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="21" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="21" t="s">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="30"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="21" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="21" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="28"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:18">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32" t="s">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:18">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="33"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" customHeight="1" spans="1:18">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="22" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="23" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="33"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" customHeight="1" spans="1:18">
-      <c r="A14" s="9"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="18" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="22" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="33"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" customHeight="1" spans="1:18">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="22" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="33"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:18">
-      <c r="A16" s="9"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="22" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="22" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="22" t="s">
+      <c r="N16" s="4"/>
+      <c r="O16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="33"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" customHeight="1" spans="1:18">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="22" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="22" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="34"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" customHeight="1" spans="1:18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="21" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="18" t="s">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="35" t="s">
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="22" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="18" t="s">
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="32" t="s">
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="22" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="22" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="33"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" customHeight="1" spans="1:18">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="22" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="22" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="34"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" customHeight="1" spans="1:18">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="21" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="21" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="35" t="s">
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="31" t="s">
         <v>12</v>
       </c>
     </row>

--- a/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
+++ b/MENU/PROPOSAL/PLAN/FYP - FEATURES ( AFTER MEETING 1 ) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12620"/>
+    <workbookView windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>J</t>
   </si>
@@ -113,7 +113,7 @@
     <t>CLUB HISTORY</t>
   </si>
   <si>
-    <t>CLUB HIGHCOM STRUCTURE</t>
+    <t>CLUB ADMIN STRUCTURE</t>
   </si>
   <si>
     <t>CLUB REGISTER SYSTEM</t>
@@ -226,8 +226,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,82 +349,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,42 +364,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -409,12 +409,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,31 +499,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,121 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +692,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -718,44 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +771,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1358,21 +1358,21 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.6388888888889" defaultRowHeight="17" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="4" width="3.63636363636364" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.4545454545455" style="1" customWidth="1"/>
-    <col min="6" max="8" width="3.63636363636364" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="10" max="12" width="3.63636363636364" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="14" max="16" width="3.63636363636364" style="1" customWidth="1"/>
-    <col min="17" max="16380" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="16381" max="16384" width="20.6363636363636" style="1"/>
+    <col min="1" max="1" width="26.6388888888889" style="1" customWidth="1"/>
+    <col min="2" max="4" width="3.63888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.4537037037037" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.63888888888889" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="14" max="16" width="3.63888888888889" style="1" customWidth="1"/>
+    <col min="17" max="16380" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="20.6388888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:16">
@@ -1503,7 +1503,9 @@
     </row>
     <row r="5" customHeight="1" spans="1:18">
       <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1532,8 +1534,12 @@
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1556,8 +1562,12 @@
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1605,15 +1615,27 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
@@ -1633,15 +1655,27 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1663,13 +1697,21 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1789,9 +1831,15 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="M15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1818,12 +1866,8 @@
         <v>24</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1847,13 +1891,21 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1947,13 +1999,21 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +2047,9 @@
       <c r="I21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
